--- a/BuffetWorkingGroup/TestCase1b/Alpha_plot.xlsx
+++ b/BuffetWorkingGroup/TestCase1b/Alpha_plot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwpomero/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nasa-my.sharepoint.com/personal/bwpomero_ndc_nasa_gov/Documents/_Chief Engineer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0372684-BF74-0445-A86B-A81D7599B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{E0372684-BF74-0445-A86B-A81D7599B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26328F1D-0E9C-9343-BD8F-D4F93C6D37FC}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{EF8968BA-7CDB-2C41-AF7E-5BD1621428BB}"/>
+    <workbookView xWindow="6520" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{EF8968BA-7CDB-2C41-AF7E-5BD1621428BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="128">
   <si>
     <t>002.01</t>
   </si>
@@ -252,13 +252,181 @@
   </si>
   <si>
     <t>Turbulence Model</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>RANS</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Cadence Unstructured</t>
+  </si>
+  <si>
+    <t>URANS</t>
+  </si>
+  <si>
+    <t>SST-kw Curvature</t>
+  </si>
+  <si>
+    <t>SA Curvature</t>
+  </si>
+  <si>
+    <t>SA-neg-CC 2nd order</t>
+  </si>
+  <si>
+    <t>WMLES</t>
+  </si>
+  <si>
+    <t>Dynamic Smagorinsky SGS Model, Algebraic Equilibrium Wall Model</t>
+  </si>
+  <si>
+    <t>SA-nec-CC-QCR-RC</t>
+  </si>
+  <si>
+    <t>SA-neg</t>
+  </si>
+  <si>
+    <t>014.03</t>
+  </si>
+  <si>
+    <t>SA Edwards-Chandra</t>
+  </si>
+  <si>
+    <t>ZDES Mode 2 2020</t>
+  </si>
+  <si>
+    <t>DHRL</t>
+  </si>
+  <si>
+    <t>k-w</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>SST-V-2003</t>
+  </si>
+  <si>
+    <t>SA-noft2-R</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Sa-noft2-R-QCR2000</t>
+  </si>
+  <si>
+    <t>SST-CC-QCR2020</t>
+  </si>
+  <si>
+    <t>SARC-QCR_neg</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>SA-noft2</t>
+  </si>
+  <si>
+    <t>DDES</t>
+  </si>
+  <si>
+    <t>SA-RC-comp-neg</t>
+  </si>
+  <si>
+    <t>K-w-Wilcox 1998k</t>
+  </si>
+  <si>
+    <t>HRLES</t>
+  </si>
+  <si>
+    <t>SA-neg-CC-QCR-RC 2nd Order</t>
+  </si>
+  <si>
+    <t>SST-kw</t>
+  </si>
+  <si>
+    <t>SA-comp</t>
+  </si>
+  <si>
+    <t>SA Strain/Vorticity Based</t>
+  </si>
+  <si>
+    <t>Cadence Structured</t>
+  </si>
+  <si>
+    <t>Custom Adapted</t>
+  </si>
+  <si>
+    <t>Extruded Deck</t>
+  </si>
+  <si>
+    <t>Deck Extruded</t>
+  </si>
+  <si>
+    <t>Quad</t>
+  </si>
+  <si>
+    <t>SA-nec-CC-QCR 2nd Order</t>
+  </si>
+  <si>
+    <t>SA-neg-CC-QCR</t>
+  </si>
+  <si>
+    <t>SA-neg-CC</t>
+  </si>
+  <si>
+    <t>SA-neg 2nd order</t>
+  </si>
+  <si>
+    <t>Structured</t>
+  </si>
+  <si>
+    <t>Helden</t>
+  </si>
+  <si>
+    <t>Rizzi Structured</t>
+  </si>
+  <si>
+    <t>SA-neg-QCR-RC</t>
+  </si>
+  <si>
+    <t>Sanoft2-R-QCR2000</t>
+  </si>
+  <si>
+    <t>Sanoft2-R</t>
+  </si>
+  <si>
+    <t>SAnoft2</t>
+  </si>
+  <si>
+    <t>SST-2003-sust</t>
+  </si>
+  <si>
+    <t>SARC-RC-comp-neg</t>
+  </si>
+  <si>
+    <t>SA-QCR</t>
+  </si>
+  <si>
+    <t>SA-R</t>
+  </si>
+  <si>
+    <t>SA-RC-QCR</t>
+  </si>
+  <si>
+    <t>SST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +437,62 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -293,10 +517,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,38 +873,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAFC31F-0382-344A-890D-6EB0F99DBB1B}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +920,17 @@
       <c r="C2" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,8 +940,17 @@
       <c r="C3" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -694,8 +960,17 @@
       <c r="C4" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -705,8 +980,17 @@
       <c r="C5" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -716,8 +1000,17 @@
       <c r="C6" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,8 +1020,17 @@
       <c r="C7" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,8 +1040,17 @@
       <c r="C8" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -749,8 +1060,17 @@
       <c r="C9" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,8 +1080,17 @@
       <c r="C10" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -771,8 +1100,17 @@
       <c r="C11" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,8 +1120,17 @@
       <c r="C12" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -793,8 +1140,17 @@
       <c r="C13" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -804,8 +1160,17 @@
       <c r="C14" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -815,8 +1180,17 @@
       <c r="C15" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -826,8 +1200,17 @@
       <c r="C16" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -837,8 +1220,17 @@
       <c r="C17" s="2">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -848,8 +1240,17 @@
       <c r="C18" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -859,8 +1260,17 @@
       <c r="C19" s="2">
         <v>239</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -870,8 +1280,17 @@
       <c r="C20" s="2">
         <v>246</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -881,8 +1300,17 @@
       <c r="C21" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -892,8 +1320,17 @@
       <c r="C22" s="2">
         <v>269</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -903,8 +1340,17 @@
       <c r="C23" s="2">
         <v>285</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -914,8 +1360,17 @@
       <c r="C24" s="2">
         <v>301</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -925,8 +1380,17 @@
       <c r="C25" s="2">
         <v>315</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -936,8 +1400,17 @@
       <c r="C26" s="2">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -947,8 +1420,17 @@
       <c r="C27" s="2">
         <v>343</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -958,8 +1440,14 @@
       <c r="C28" s="2">
         <v>359</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -969,8 +1457,17 @@
       <c r="C29" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -980,96 +1477,177 @@
       <c r="C30" s="2">
         <v>361</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="18">
         <v>362</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="18">
         <v>377</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="D31" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="16">
         <v>378</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="16">
         <v>393</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="D32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="14">
         <v>394</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="14">
         <v>408</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="D33" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="20">
         <v>409</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="20">
         <v>427</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="D34" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="18">
         <v>428</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="18">
         <v>443</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="D35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="16">
         <v>444</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="16">
         <v>459</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="D36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="14">
         <v>460</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="14">
         <v>475</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="D37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="20">
         <v>476</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="20">
         <v>494</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1079,52 +1657,97 @@
       <c r="C39" s="2">
         <v>497</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="12">
         <v>498</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="12">
         <v>513</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="D40" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="10">
         <v>514</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="10">
         <v>429</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="D41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="6">
         <v>530</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="6">
         <v>545</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="D42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="12">
         <v>546</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="12">
         <v>561</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1134,8 +1757,17 @@
       <c r="C44" s="2">
         <v>577</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1145,30 +1777,54 @@
       <c r="C45" s="2">
         <v>593</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="E45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="10">
         <v>594</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="10">
         <v>609</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="D46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>610</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="6">
         <v>625</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1178,8 +1834,17 @@
       <c r="C48" s="2">
         <v>641</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1189,8 +1854,17 @@
       <c r="C49" s="2">
         <v>567</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1200,8 +1874,17 @@
       <c r="C50" s="2">
         <v>673</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1211,8 +1894,17 @@
       <c r="C51" s="2">
         <v>694</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1222,8 +1914,17 @@
       <c r="C52" s="2">
         <v>703</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1233,165 +1934,314 @@
       <c r="C53" s="2">
         <v>712</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="D53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B55" s="2">
         <v>713</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>727</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B56" s="2">
         <v>728</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>742</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="D56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2">
         <v>743</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>758</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+      <c r="D57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="2">
         <v>759</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>764</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="D58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>765</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="D59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>781</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>796</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <v>797</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>812</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="D61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B62" s="2">
         <v>813</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="D62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B63" s="2">
         <v>829</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>844</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+      <c r="D63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B64" s="2">
         <v>845</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="2">
         <v>860</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="D64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>861</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>868</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="D65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>869</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>877</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="D66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="2">
         <v>878</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>886</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+      <c r="D67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="2">
         <v>887</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>893</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD1048576 A1:C1 F1:XFD1" numberStoredAsText="1"/>
+    <ignoredError sqref="G1:XFD3 A55:C1048576 D69:XFD1048576 G46:XFD46 G66:XFD68 G39:XFD39 G50:XFD50 G49:XFD49 G55:XFD55 A1:C53 G12:XFD12 G18:XFD18 G62:XFD62 G61:XFD61 G56:XFD56 G26:XFD26 G27:XFD27 G51:XFD51 G29:XFD29 G13:XFD13 G25:XFD25 G30:XFD30 G14:XFD14 G16:XFD16 G17:XFD17 G60:XFD60 G64:XFD64 G63:XFD63 G65:XFD65 G59:XFD59 G58:XFD58 G4:XFD11 G47:XFD48 G40:XFD45 G57:XFD57 G15:XFD15 G19:XFD24 G28:XFD28 G52:XFD53 G31:XFD38 D45" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>